--- a/biology/Botanique/Square_Jehan-Rictus/Square_Jehan-Rictus.xlsx
+++ b/biology/Botanique/Square_Jehan-Rictus/Square_Jehan-Rictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jehan-Rictus est un espace vert du 18e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé place des Abbesses, à Montmartre.
 Ce site est accessible par le 14, place des Abbesses, la rue La Vieuville et le passage des Abbesses.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Gabriel Randon de Saint-Amand dit Jehan-Rictus (1867-1933).
 </t>
@@ -576,12 +592,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1936, il est réaménagé en 1994. 
-Il s'étend sur une surface de 2 083 m2 à l'emplacement du bâtiment qui abrita à partir de 1837 la mairie de l'ancienne commune de Montmartre, devenue mairie du 18e arrondissement de Paris à partir de 1860. En 1892, les services municipaux furent déplacés place Jules-Joffrin, en face de l'église Notre-Dame de Clignancourt[1].
+Il s'étend sur une surface de 2 083 m2 à l'emplacement du bâtiment qui abrita à partir de 1837 la mairie de l'ancienne commune de Montmartre, devenue mairie du 18e arrondissement de Paris à partir de 1860. En 1892, les services municipaux furent déplacés place Jules-Joffrin, en face de l'église Notre-Dame de Clignancourt.
 On y trouve des cerisiers à fleurs, des palmettes d'arbres fruitiers et de massifs d'arbustes (spirées, lauriers et plantes couvre-sol), un mail d'érables sycomores, des haies de charmilles, une collection botanique de roses anciennes et un jardin de plantes officinales, entouré d'une pergola, au centre duquel se trouve une fontaine.
-Depuis 2000, il abrite le Mur des je t'aime, une œuvre de Frédéric Baron et Claire Kito[2].
+Depuis 2000, il abrite le Mur des je t'aime, une œuvre de Frédéric Baron et Claire Kito.
 			Le Mur des je t'aime reproduit 311 « je t'aime » en 250 langues.
 </t>
         </is>
